--- a/biology/Botanique/Bovale/Bovale.xlsx
+++ b/biology/Botanique/Bovale/Bovale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bovale est le nom de deux cépages d'origine sicilienne.
@@ -512,11 +524,11 @@
           <t>Bovale grande</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bovale grande est planté sur une superficie d'environ 1 380 hectares.
-Synonyme
-Bova Murru, Bovale di Spagna, Bovale Mannu, Maraiola Maggiore, Mostaia, Nieddara, Nièddera, Nieddu Manu, Tintiglia, Tintilia, Tintillosa, Tintirella, Zinzillosa.
 </t>
         </is>
       </c>
@@ -542,14 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Bovale grande</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bova Murru, Bovale di Spagna, Bovale Mannu, Maraiola Maggiore, Mostaia, Nieddara, Nièddera, Nieddu Manu, Tintiglia, Tintilia, Tintillosa, Tintirella, Zinzillosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bovale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bovale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Bovale sardo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bovale sardo est planté sur une superficie d'environ 920 hectares.
-Synonyme
-Bovale Piccolo, Bovale Piticco, Bovaleddo, Bovaleddu, Cadelanisca, Cardanissia, Carrixa, Moraiola Minore, Muristeddo, Muristellu, Nieddu Prunizza.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bovale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bovale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bovale sardo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bovale Piccolo, Bovale Piticco, Bovaleddo, Bovaleddu, Cadelanisca, Cardanissia, Carrixa, Moraiola Minore, Muristeddo, Muristellu, Nieddu Prunizza.
 </t>
         </is>
       </c>
